--- a/medicine/Enfance/Jacques_Rogy/Jacques_Rogy.xlsx
+++ b/medicine/Enfance/Jacques_Rogy/Jacques_Rogy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jacques Rogy est le héros d’une série française de vingt-sept romans pour la jeunesse écrite par Pierre Lamblin et publiée de 1960 à 1976 dans la collection Spirale aux éditions G. P.. La série a également paru sous la forme de douze bandes dessinées inspirées des romans.
@@ -512,11 +524,13 @@
           <t>L'auteur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Lamblin (1902-1992)[1] est journaliste. Il a 26 ans lorsqu'il écrit son premier roman, Les Demi-Crevés (chronique d'une génération), qui paraît en 1928[2]. En 1960, il intègre la maison d'édition G. P. : il y publie Trois garçons mènent l'enquête[3], le premier tome de ce qui sera la série pour la jeunesse Jacques Rogy.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Lamblin (1902-1992) est journaliste. Il a 26 ans lorsqu'il écrit son premier roman, Les Demi-Crevés (chronique d'une génération), qui paraît en 1928. En 1960, il intègre la maison d'édition G. P. : il y publie Trois garçons mènent l'enquête, le premier tome de ce qui sera la série pour la jeunesse Jacques Rogy.
 Toujours pour le compte des éditions G.P., il adapte pour la jeunesse des classiques de la littérature — Ivanhoé, L'Île au trésor, etc.  — ainsi que des séries télévisées des années 1960 : Commando spatial, Les Habits noirs, etc. 
-Il publiera également quelques romans policiers. Il lui sera décerné le Prix Émile-Gaboriau en 1951 pour Le Concierge n'est plus dans l'escalier[4], roman qui sera adapté en pièce radiophonique en 1959[5], après avoir inspiré le scénario du film Minuit quai de Bercy réalisé par Christian Stengel, sorti en 1953[6].
+Il publiera également quelques romans policiers. Il lui sera décerné le Prix Émile-Gaboriau en 1951 pour Le Concierge n'est plus dans l'escalier, roman qui sera adapté en pièce radiophonique en 1959, après avoir inspiré le scénario du film Minuit quai de Bercy réalisé par Christian Stengel, sorti en 1953.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Thème de la série</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Rogy est journaliste reporter au Grand Écho de Digne, puis au Clairon à Paris. Dans ses enquêtes, il est aidé par son chauffeur et ami, René Doridan, et par sa collègue journaliste Constance Haget.
 </t>
@@ -576,11 +592,48 @@
           <t>Liste des titres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(liste exhaustive)
-Romans
-1960 : Trois garçons mènent l'enquête[3] — Illustrations de Françoise Bertier. Ce premier titre sera réédité en 1963 sous le titre Jacques Rogy entre en scène.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(liste exhaustive)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacques_Rogy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Rogy</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1960 : Trois garçons mènent l'enquête — Illustrations de Françoise Bertier. Ce premier titre sera réédité en 1963 sous le titre Jacques Rogy entre en scène.
 1961 : Jacques Rogy chasse le fantôme — Ill. Vanni Tealdi
 1962 : Jacques Rogy court deux lièvres à la fois — Ill. Vanni Tealdi
 1963 : Jacques Rogy entre en scène (réédition avec nouveau titre de Trois garçons mènent l'enquête)
@@ -607,9 +660,43 @@
 1973 : Jacques Rogy enquête chez le Pharaon — Ill. Bertrand
 1974 : Jacques Rogy se fâche — Ill. Bertrand
 1975 : Jacques Rogy force le secret des treize — Ill. Jacques Fromont
-1976 : Jacques Rogy réussi un fameux coup de filet — Ill. Vanni Tealdi
-Bande dessinée
-Des BD souples de petit format ont paru aux éditions Aredit. Les histoires s’inspirent des romans édités dans la collection Spirale.
+1976 : Jacques Rogy réussi un fameux coup de filet — Ill. Vanni Tealdi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jacques_Rogy</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Rogy</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Des BD souples de petit format ont paru aux éditions Aredit. Les histoires s’inspirent des romans édités dans la collection Spirale.
 1965 : Jacques Rogy entre en scène
 1966 : Jacques Rogy chasse le fantôme
 1966 : Jacques Rogy court deux lièvres à la fois
